--- a/biology/Botanique/Matricaire_maritime/Matricaire_maritime.xlsx
+++ b/biology/Botanique/Matricaire_maritime/Matricaire_maritime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tripleurospermum maritimum
 La matricaire maritime, Tripleurospermum maritimum (anciennement Matricaria maritima L.), est une espèce de plante à fleurs de la famille des Astéracées et du genre Tripleurospermum.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées aux tiges couchées aux feuilles très découpées en lanières et charnues. Les Capitules sont formés de fleurs tubulées jaunes (disque central) entourées de fleurs ligulées blanches. La plante est inodore.
 </t>
